--- a/Doc/技术需求.xlsx
+++ b/Doc/技术需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>技术点简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,54 @@
   </si>
   <si>
     <t>重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListView性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP通信模块增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -533,6 +581,57 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/技术需求.xlsx
+++ b/Doc/技术需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>技术点简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,79 +54,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Modal等待层 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListView性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP通信模块增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleJson替换为JsonFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换库, 替换代码中使用的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模块重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>资源更新接包模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Modal等待层 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模块重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListView性能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP通信模块增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +179,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -195,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,7 +560,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -551,7 +577,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -563,75 +589,92 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/技术需求.xlsx
+++ b/Doc/技术需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>技术点简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>资源更新接包模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Façade更名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -675,6 +687,23 @@
       </c>
       <c r="E8" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/技术需求.xlsx
+++ b/Doc/技术需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>技术点简述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源更新解包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缓存处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序列帧动画支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,27 +98,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleJson替换为JsonFx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换库, 替换代码中使用的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模块重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Façade更名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新解包模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存处理, 触摸事件Bug修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HTTP通信模块增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleJson替换为JsonFx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换库, 替换代码中使用的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
+    <t>序列帧动画支持模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Façade更名gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势模块增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,23 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据模块重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源更新接包模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Façade更名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>手势管理器增加,  Input管理器废弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +209,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +259,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -572,13 +590,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -589,121 +607,138 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
